--- a/va_facility_data_2025-02-20/Terre Haute VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Terre%20Haute%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Terre Haute VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Terre%20Haute%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcbeebf83cbca4583abe78d53b55f49bc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8595c050529144d19f4640f419331308"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ccd37620491439bac0db112aaf511e6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra2024fed7a4a4d729b2f93f728f612e0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb174bf91668848b2b1d02039b65accb9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf150a76ad41e4572be21bd4aed76774c"/>
   </x:sheets>
 </x:workbook>
 </file>
